--- a/data/trans_orig/DC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E42C33-F500-412F-AB0B-6CCD15CDC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37FB5B9-F629-4988-A27A-E88D482B2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD06C35-3B99-4D7E-9DC1-557D9CA47DF8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D217192-F195-46E7-BDFB-09D8C921C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,42%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>76,05%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,7 +194,7 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>12,89%</t>
+    <t>12,95%</t>
   </si>
   <si>
     <t>19,61%</t>
@@ -203,19 +203,19 @@
     <t>29,9%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>84,02%</t>
@@ -224,25 +224,25 @@
     <t>80,39%</t>
   </si>
   <si>
-    <t>87,11%</t>
+    <t>87,05%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,49 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>27,56%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>72,44%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>30,91%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,64 +359,64 @@
     <t>37,92%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>52,57%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>42,07%</t>
@@ -431,31 +425,31 @@
     <t>39,73%</t>
   </si>
   <si>
-    <t>47,77%</t>
+    <t>47,97%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>52,03%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -464,10 +458,10 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CAF749-23E6-4790-8BD5-2CC8FE0B680D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BF0812-6568-4626-8DCA-49EDD14EEE44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,7 +1492,7 @@
         <v>608</v>
       </c>
       <c r="N13" s="7">
-        <v>457566</v>
+        <v>457565</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1507,7 +1501,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1516,13 @@
         <v>550900</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
@@ -1537,13 +1531,13 @@
         <v>462786</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -1552,13 +1546,13 @@
         <v>1013686</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1594,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1620,13 @@
         <v>185498</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>456</v>
@@ -1641,13 +1635,13 @@
         <v>275457</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>658</v>
@@ -1656,13 +1650,13 @@
         <v>460955</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>414659</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>546</v>
@@ -1692,13 +1686,13 @@
         <v>321606</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1007</v>
@@ -1707,13 +1701,13 @@
         <v>736265</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>264580</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>991</v>
@@ -1796,13 +1790,13 @@
         <v>641952</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -1811,13 +1805,13 @@
         <v>906533</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,16 +1823,16 @@
         <v>633</v>
       </c>
       <c r="D20" s="7">
-        <v>433174</v>
+        <v>433175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>717</v>
@@ -1847,13 +1841,13 @@
         <v>384685</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1350</v>
@@ -1862,13 +1856,13 @@
         <v>817859</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1930,13 @@
         <v>787190</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2325</v>
@@ -1951,28 +1945,28 @@
         <v>1613620</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3222</v>
       </c>
       <c r="N22" s="7">
-        <v>2400810</v>
+        <v>2400809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2598038</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3042</v>
@@ -2002,13 +1996,13 @@
         <v>2221961</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5521</v>
@@ -2017,13 +2011,13 @@
         <v>4819999</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2059,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37FB5B9-F629-4988-A27A-E88D482B2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B934E31F-E016-4679-B6DB-C95E630A007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D217192-F195-46E7-BDFB-09D8C921C1BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F616CEB-77C7-44D9-A6EB-379AB30BA61F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BF0812-6568-4626-8DCA-49EDD14EEE44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070CAD2-F44D-480B-B1A6-C4734C607A33}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B934E31F-E016-4679-B6DB-C95E630A007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C6E339-16ED-48DA-B2C6-870D9B33B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F616CEB-77C7-44D9-A6EB-379AB30BA61F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20555BF4-9861-4B88-B0BE-1902CF9ADB48}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,42%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>76,05%</t>
   </si>
   <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,7 +194,7 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>19,61%</t>
@@ -203,19 +203,19 @@
     <t>29,9%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>84,02%</t>
@@ -224,25 +224,25 @@
     <t>80,39%</t>
   </si>
   <si>
-    <t>87,05%</t>
+    <t>87,11%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,49 +251,55 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>27,56%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>72,44%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>30,91%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,64 +365,64 @@
     <t>37,92%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>52,57%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>42,07%</t>
@@ -425,31 +431,31 @@
     <t>39,73%</t>
   </si>
   <si>
-    <t>47,97%</t>
+    <t>47,77%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,03%</t>
+    <t>52,23%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -458,10 +464,10 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070CAD2-F44D-480B-B1A6-C4734C607A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8809C6FD-1F6A-40EF-B60F-B9E7B1A0849A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1498,7 @@
         <v>608</v>
       </c>
       <c r="N13" s="7">
-        <v>457565</v>
+        <v>457566</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1501,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1522,13 @@
         <v>550900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
@@ -1531,13 +1537,13 @@
         <v>462786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -1546,13 +1552,13 @@
         <v>1013686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,7 +1600,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1626,13 @@
         <v>185498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>456</v>
@@ -1635,13 +1641,13 @@
         <v>275457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>658</v>
@@ -1650,13 +1656,13 @@
         <v>460955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>414659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>546</v>
@@ -1686,13 +1692,13 @@
         <v>321606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1007</v>
@@ -1701,13 +1707,13 @@
         <v>736265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>264580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>991</v>
@@ -1790,13 +1796,13 @@
         <v>641952</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -1805,13 +1811,13 @@
         <v>906533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,16 +1829,16 @@
         <v>633</v>
       </c>
       <c r="D20" s="7">
-        <v>433175</v>
+        <v>433174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>717</v>
@@ -1841,13 +1847,13 @@
         <v>384685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1350</v>
@@ -1856,13 +1862,13 @@
         <v>817859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1930,13 +1936,13 @@
         <v>787190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2325</v>
@@ -1945,28 +1951,28 @@
         <v>1613620</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3222</v>
       </c>
       <c r="N22" s="7">
-        <v>2400809</v>
+        <v>2400810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2598038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3042</v>
@@ -1996,13 +2002,13 @@
         <v>2221961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5521</v>
@@ -2011,13 +2017,13 @@
         <v>4819999</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2065,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C6E339-16ED-48DA-B2C6-870D9B33B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F6C6EC-C661-4CB6-AE63-57C298026875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20555BF4-9861-4B88-B0BE-1902CF9ADB48}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E4D1A12-D917-4693-8423-5F04E342054F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,409 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>76,05%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8809C6FD-1F6A-40EF-B60F-B9E7B1A0849A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A435A-1082-456B-9D41-77878D43E655}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>28617</v>
+        <v>31291</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>84999</v>
+        <v>76671</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>113616</v>
+        <v>107961</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1093,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>349062</v>
+        <v>368696</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1108,7 @@
         <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>269958</v>
+        <v>236529</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1123,7 @@
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>619020</v>
+        <v>605226</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1144,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1159,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1174,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>46365</v>
+        <v>45953</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,37 +1206,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>144227</v>
+        <v>188168</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>190592</v>
+        <v>234121</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,46 +1248,46 @@
         <v>267</v>
       </c>
       <c r="D8" s="7">
-        <v>382031</v>
+        <v>377594</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>344</v>
       </c>
       <c r="I8" s="7">
-        <v>354988</v>
+        <v>323925</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>611</v>
       </c>
       <c r="N8" s="7">
-        <v>737019</v>
+        <v>701519</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1299,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1314,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1329,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1304,7 +1343,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1313,46 +1352,46 @@
         <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>89039</v>
+        <v>86562</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>182510</v>
+        <v>170884</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
       </c>
       <c r="N10" s="7">
-        <v>271549</v>
+        <v>257446</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,46 +1403,46 @@
         <v>460</v>
       </c>
       <c r="D11" s="7">
-        <v>468213</v>
+        <v>449776</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>576</v>
       </c>
       <c r="I11" s="7">
-        <v>427937</v>
+        <v>421118</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1036</v>
       </c>
       <c r="N11" s="7">
-        <v>896150</v>
+        <v>870894</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1454,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1469,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1484,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1468,46 +1507,46 @@
         <v>167</v>
       </c>
       <c r="D13" s="7">
-        <v>173090</v>
+        <v>163566</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>441</v>
       </c>
       <c r="I13" s="7">
-        <v>284475</v>
+        <v>261928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>608</v>
       </c>
       <c r="N13" s="7">
-        <v>457566</v>
+        <v>425494</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1558,46 @@
         <v>498</v>
       </c>
       <c r="D14" s="7">
-        <v>550900</v>
+        <v>724220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
       </c>
       <c r="I14" s="7">
-        <v>462786</v>
+        <v>450953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
       </c>
       <c r="N14" s="7">
-        <v>1013686</v>
+        <v>1175173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1609,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1624,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1639,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1662,46 @@
         <v>202</v>
       </c>
       <c r="D16" s="7">
-        <v>185498</v>
+        <v>173923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>456</v>
       </c>
       <c r="I16" s="7">
-        <v>275457</v>
+        <v>252420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>658</v>
       </c>
       <c r="N16" s="7">
-        <v>460955</v>
+        <v>426343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1713,46 @@
         <v>461</v>
       </c>
       <c r="D17" s="7">
-        <v>414659</v>
+        <v>387311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>546</v>
       </c>
       <c r="I17" s="7">
-        <v>321606</v>
+        <v>295485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1007</v>
       </c>
       <c r="N17" s="7">
-        <v>736265</v>
+        <v>682796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1764,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1779,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1794,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="D19" s="7">
-        <v>264580</v>
+        <v>118499</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="7">
+        <v>415</v>
+      </c>
+      <c r="I19" s="7">
+        <v>409189</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>600</v>
+      </c>
+      <c r="N19" s="7">
+        <v>527688</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>991</v>
-      </c>
-      <c r="I19" s="7">
-        <v>641952</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1386</v>
-      </c>
-      <c r="N19" s="7">
-        <v>906533</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>633</v>
+        <v>385</v>
       </c>
       <c r="D20" s="7">
-        <v>433174</v>
+        <v>249666</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>412</v>
+      </c>
+      <c r="I20" s="7">
+        <v>199179</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>797</v>
+      </c>
+      <c r="N20" s="7">
+        <v>448845</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>717</v>
-      </c>
-      <c r="I20" s="7">
-        <v>384685</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1350</v>
-      </c>
-      <c r="N20" s="7">
-        <v>817859</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>897</v>
+        <v>210</v>
       </c>
       <c r="D22" s="7">
-        <v>787190</v>
+        <v>127804</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>576</v>
+      </c>
+      <c r="I22" s="7">
+        <v>274490</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="7">
+        <v>786</v>
+      </c>
+      <c r="N22" s="7">
+        <v>402294</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>2325</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1613620</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3222</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2400810</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2479</v>
+        <v>248</v>
       </c>
       <c r="D23" s="7">
-        <v>2598038</v>
+        <v>154955</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="7">
+        <v>305</v>
+      </c>
+      <c r="I23" s="7">
+        <v>151341</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>553</v>
+      </c>
+      <c r="N23" s="7">
+        <v>306296</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>3042</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2221961</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5521</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4819999</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>897</v>
+      </c>
+      <c r="D25" s="7">
+        <v>747597</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2325</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1633750</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3222</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2381347</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2479</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2712220</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3042</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2078530</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5521</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4790750</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
